--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp7-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp7-Bmpr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Bmpr1a</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.51625</v>
+        <v>0.03443933333333333</v>
       </c>
       <c r="H2">
-        <v>1.54875</v>
+        <v>0.103318</v>
       </c>
       <c r="I2">
-        <v>0.9148183742193402</v>
+        <v>0.05823261822459219</v>
       </c>
       <c r="J2">
-        <v>0.9148183742193402</v>
+        <v>0.0582326182245922</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.722665</v>
+        <v>6.322177333333333</v>
       </c>
       <c r="N2">
-        <v>17.167995</v>
+        <v>18.966532</v>
       </c>
       <c r="O2">
-        <v>0.09021166427595352</v>
+        <v>0.08271011762055308</v>
       </c>
       <c r="P2">
-        <v>0.09021166427595353</v>
+        <v>0.08271011762055309</v>
       </c>
       <c r="Q2">
-        <v>2.95432580625</v>
+        <v>0.2177315725751111</v>
       </c>
       <c r="R2">
-        <v>26.58893225625</v>
+        <v>1.959584153176</v>
       </c>
       <c r="S2">
-        <v>0.08252728804854874</v>
+        <v>0.004816426702708783</v>
       </c>
       <c r="T2">
-        <v>0.08252728804854874</v>
+        <v>0.004816426702708785</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.51625</v>
+        <v>0.03443933333333333</v>
       </c>
       <c r="H3">
-        <v>1.54875</v>
+        <v>0.103318</v>
       </c>
       <c r="I3">
-        <v>0.9148183742193402</v>
+        <v>0.05823261822459219</v>
       </c>
       <c r="J3">
-        <v>0.9148183742193402</v>
+        <v>0.0582326182245922</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>123.860985</v>
       </c>
       <c r="O3">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560596</v>
       </c>
       <c r="P3">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560597</v>
       </c>
       <c r="Q3">
-        <v>21.31441116875</v>
+        <v>1.421896583136666</v>
       </c>
       <c r="R3">
-        <v>191.82970051875</v>
+        <v>12.79706924823</v>
       </c>
       <c r="S3">
-        <v>0.5954050654763107</v>
+        <v>0.03145368671393442</v>
       </c>
       <c r="T3">
-        <v>0.5954050654763107</v>
+        <v>0.03145368671393443</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.51625</v>
+        <v>0.03443933333333333</v>
       </c>
       <c r="H4">
-        <v>1.54875</v>
+        <v>0.103318</v>
       </c>
       <c r="I4">
-        <v>0.9148183742193402</v>
+        <v>0.05823261822459219</v>
       </c>
       <c r="J4">
-        <v>0.9148183742193402</v>
+        <v>0.0582326182245922</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.36419166666667</v>
+        <v>27.73243066666667</v>
       </c>
       <c r="N4">
-        <v>49.092575</v>
+        <v>83.197292</v>
       </c>
       <c r="O4">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="P4">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="Q4">
-        <v>8.448013947916666</v>
+        <v>0.9550864238728889</v>
       </c>
       <c r="R4">
-        <v>76.03212553125</v>
+        <v>8.595777814856</v>
       </c>
       <c r="S4">
-        <v>0.235990112885633</v>
+        <v>0.0211274079405692</v>
       </c>
       <c r="T4">
-        <v>0.235990112885633</v>
+        <v>0.0211274079405692</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.51625</v>
+        <v>0.03443933333333333</v>
       </c>
       <c r="H5">
-        <v>1.54875</v>
+        <v>0.103318</v>
       </c>
       <c r="I5">
-        <v>0.9148183742193402</v>
+        <v>0.05823261822459219</v>
       </c>
       <c r="J5">
-        <v>0.9148183742193402</v>
+        <v>0.0582326182245922</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.06212466666666667</v>
+        <v>1.096171666666667</v>
       </c>
       <c r="N5">
-        <v>0.186374</v>
+        <v>3.288515</v>
       </c>
       <c r="O5">
-        <v>0.000979328612209321</v>
+        <v>0.01434070616847367</v>
       </c>
       <c r="P5">
-        <v>0.000979328612209321</v>
+        <v>0.01434070616847367</v>
       </c>
       <c r="Q5">
-        <v>0.03207185916666667</v>
+        <v>0.03775142141888889</v>
       </c>
       <c r="R5">
-        <v>0.2886467325000001</v>
+        <v>0.33976279277</v>
       </c>
       <c r="S5">
-        <v>0.0008959078088478137</v>
+        <v>0.0008350968673797812</v>
       </c>
       <c r="T5">
-        <v>0.0008959078088478137</v>
+        <v>0.0008350968673797813</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -785,16 +785,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.04806966666666667</v>
+        <v>0.51625</v>
       </c>
       <c r="H6">
-        <v>0.144209</v>
+        <v>1.54875</v>
       </c>
       <c r="I6">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654733</v>
       </c>
       <c r="J6">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654734</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.722665</v>
+        <v>6.322177333333333</v>
       </c>
       <c r="N6">
-        <v>17.167995</v>
+        <v>18.966532</v>
       </c>
       <c r="O6">
-        <v>0.09021166427595352</v>
+        <v>0.08271011762055308</v>
       </c>
       <c r="P6">
-        <v>0.09021166427595353</v>
+        <v>0.08271011762055309</v>
       </c>
       <c r="Q6">
-        <v>0.275086598995</v>
+        <v>3.263824048333333</v>
       </c>
       <c r="R6">
-        <v>2.475779390955</v>
+        <v>29.374416435</v>
       </c>
       <c r="S6">
-        <v>0.007684376227404787</v>
+        <v>0.07219885069223396</v>
       </c>
       <c r="T6">
-        <v>0.007684376227404789</v>
+        <v>0.07219885069223399</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -847,16 +847,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.04806966666666667</v>
+        <v>0.51625</v>
       </c>
       <c r="H7">
-        <v>0.144209</v>
+        <v>1.54875</v>
       </c>
       <c r="I7">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654733</v>
       </c>
       <c r="J7">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654734</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>123.860985</v>
       </c>
       <c r="O7">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560596</v>
       </c>
       <c r="P7">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560597</v>
       </c>
       <c r="Q7">
-        <v>1.984652087318333</v>
+        <v>21.31441116875</v>
       </c>
       <c r="R7">
-        <v>17.861868785865</v>
+        <v>191.82970051875</v>
       </c>
       <c r="S7">
-        <v>0.0554400446084089</v>
+        <v>0.4714947763042833</v>
       </c>
       <c r="T7">
-        <v>0.0554400446084089</v>
+        <v>0.4714947763042834</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -909,16 +909,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.04806966666666667</v>
+        <v>0.51625</v>
       </c>
       <c r="H8">
-        <v>0.144209</v>
+        <v>1.54875</v>
       </c>
       <c r="I8">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654733</v>
       </c>
       <c r="J8">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654734</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.36419166666667</v>
+        <v>27.73243066666667</v>
       </c>
       <c r="N8">
-        <v>49.092575</v>
+        <v>83.197292</v>
       </c>
       <c r="O8">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="P8">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="Q8">
-        <v>0.7866212386861112</v>
+        <v>14.31686733166667</v>
       </c>
       <c r="R8">
-        <v>7.079591148175</v>
+        <v>128.851805985</v>
       </c>
       <c r="S8">
-        <v>0.02197378414148458</v>
+        <v>0.3167025401958667</v>
       </c>
       <c r="T8">
-        <v>0.02197378414148458</v>
+        <v>0.3167025401958667</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,10 +956,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -971,46 +971,294 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.04806966666666667</v>
+        <v>0.51625</v>
       </c>
       <c r="H9">
-        <v>0.144209</v>
+        <v>1.54875</v>
       </c>
       <c r="I9">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654733</v>
       </c>
       <c r="J9">
-        <v>0.08518162578065978</v>
+        <v>0.8729143757654734</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.096171666666667</v>
+      </c>
+      <c r="N9">
+        <v>3.288515</v>
+      </c>
+      <c r="O9">
+        <v>0.01434070616847367</v>
+      </c>
+      <c r="P9">
+        <v>0.01434070616847367</v>
+      </c>
+      <c r="Q9">
+        <v>0.5658986229166667</v>
+      </c>
+      <c r="R9">
+        <v>5.093087606250001</v>
+      </c>
+      <c r="S9">
+        <v>0.01251820857308926</v>
+      </c>
+      <c r="T9">
+        <v>0.01251820857308926</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M9">
-        <v>0.06212466666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.186374</v>
-      </c>
-      <c r="O9">
-        <v>0.000979328612209321</v>
-      </c>
-      <c r="P9">
-        <v>0.000979328612209321</v>
-      </c>
-      <c r="Q9">
-        <v>0.002986312018444445</v>
-      </c>
-      <c r="R9">
-        <v>0.026876808166</v>
-      </c>
-      <c r="S9">
-        <v>8.342080336150727E-05</v>
-      </c>
-      <c r="T9">
-        <v>8.342080336150727E-05</v>
+      <c r="G10">
+        <v>0.04072033333333334</v>
+      </c>
+      <c r="H10">
+        <v>0.122161</v>
+      </c>
+      <c r="I10">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="J10">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>6.322177333333333</v>
+      </c>
+      <c r="N10">
+        <v>18.966532</v>
+      </c>
+      <c r="O10">
+        <v>0.08271011762055308</v>
+      </c>
+      <c r="P10">
+        <v>0.08271011762055309</v>
+      </c>
+      <c r="Q10">
+        <v>0.2574411684057778</v>
+      </c>
+      <c r="R10">
+        <v>2.316970515652</v>
+      </c>
+      <c r="S10">
+        <v>0.005694840225610327</v>
+      </c>
+      <c r="T10">
+        <v>0.005694840225610328</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.04072033333333334</v>
+      </c>
+      <c r="H11">
+        <v>0.122161</v>
+      </c>
+      <c r="I11">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="J11">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>41.286995</v>
+      </c>
+      <c r="N11">
+        <v>123.860985</v>
+      </c>
+      <c r="O11">
+        <v>0.5401386314560596</v>
+      </c>
+      <c r="P11">
+        <v>0.5401386314560597</v>
+      </c>
+      <c r="Q11">
+        <v>1.681220198731667</v>
+      </c>
+      <c r="R11">
+        <v>15.130981788585</v>
+      </c>
+      <c r="S11">
+        <v>0.03719016843784183</v>
+      </c>
+      <c r="T11">
+        <v>0.03719016843784185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.04072033333333334</v>
+      </c>
+      <c r="H12">
+        <v>0.122161</v>
+      </c>
+      <c r="I12">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="J12">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>27.73243066666667</v>
+      </c>
+      <c r="N12">
+        <v>83.197292</v>
+      </c>
+      <c r="O12">
+        <v>0.3628105447549136</v>
+      </c>
+      <c r="P12">
+        <v>0.3628105447549136</v>
+      </c>
+      <c r="Q12">
+        <v>1.129273820890222</v>
+      </c>
+      <c r="R12">
+        <v>10.163464388012</v>
+      </c>
+      <c r="S12">
+        <v>0.02498059661847766</v>
+      </c>
+      <c r="T12">
+        <v>0.02498059661847766</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.04072033333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.122161</v>
+      </c>
+      <c r="I13">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="J13">
+        <v>0.06885300600993445</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.096171666666667</v>
+      </c>
+      <c r="N13">
+        <v>3.288515</v>
+      </c>
+      <c r="O13">
+        <v>0.01434070616847367</v>
+      </c>
+      <c r="P13">
+        <v>0.01434070616847367</v>
+      </c>
+      <c r="Q13">
+        <v>0.04463647565722223</v>
+      </c>
+      <c r="R13">
+        <v>0.4017282809150001</v>
+      </c>
+      <c r="S13">
+        <v>0.0009874007280046213</v>
+      </c>
+      <c r="T13">
+        <v>0.0009874007280046213</v>
       </c>
     </row>
   </sheetData>
